--- a/templates/employee_template v2 макет.xlsx
+++ b/templates/employee_template v2 макет.xlsx
@@ -19,20 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Сотрудник:</t>
   </si>
   <si>
-    <t>Укажите планируемые периоды отпуска, введите даты начала и окончания. Продолжительность отпуска будет рассчитана автоматически по производственному календарю за 2026 год.</t>
-  </si>
-  <si>
     <t>Проверка</t>
   </si>
   <si>
-    <t>Период в 14 дней</t>
-  </si>
-  <si>
     <t>Подразделение 1:</t>
   </si>
   <si>
@@ -81,10 +75,40 @@
     <t>Рассчетный столбец</t>
   </si>
   <si>
-    <t>Дней осталось</t>
-  </si>
-  <si>
     <t>Блок внутренней разработки, платформенных и интеграционных решений</t>
+  </si>
+  <si>
+    <t>Из которых</t>
+  </si>
+  <si>
+    <t>Отпуск основной:</t>
+  </si>
+  <si>
+    <t>Отпуск дополнительный за НРД:</t>
+  </si>
+  <si>
+    <t>Отпуск дополнительный Северный:</t>
+  </si>
+  <si>
+    <t>Отпуск остатки за прошлый период:</t>
+  </si>
+  <si>
+    <t>Дата приёма</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>ЦК мобильной разработки</t>
+  </si>
+  <si>
+    <t>Отдел сопровождения</t>
+  </si>
+  <si>
+    <t>Запланировано на 2026 год</t>
+  </si>
+  <si>
+    <t>Осталось распределить</t>
   </si>
 </sst>
 </file>
@@ -102,31 +126,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="20"/>
+      <color theme="1" tint="0.14999847407452621"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,126 +180,25 @@
         <bgColor theme="0" tint="-4.9989318521683403E-2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -284,27 +218,50 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -312,104 +269,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -418,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,50 +298,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -481,71 +325,103 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -818,246 +694,302 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="16.5703125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="30.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="1"/>
+    <col min="14" max="14" width="52.85546875" style="2" customWidth="1"/>
+    <col min="15" max="16" width="8.7109375" style="1"/>
+    <col min="17" max="17" width="18.140625" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="22" t="str">
+        <f>IF(AND(COUNTIF(G9:G23,"&lt;1")=0,SUMPRODUCT((E9:E23&lt;&gt;"")*(F9:F23&lt;&gt;"")*(COUNTIFS(E$9:E$23,"&lt;="&amp;F9:F23,F$9:F$23,"&gt;="&amp;E9:E23)-1&gt;0))=0,H2=0,COUNTIF(G9:G23,"&gt;=14")&gt;0),"Форма заполнена корректно",CONCATENATE("Форма заполнена некорректно.",IF(SUMPRODUCT((E9:E23&lt;&gt;"")*(F9:F23&lt;&gt;"")*(COUNTIFS(E$9:E$23,"&lt;="&amp;F9:F23,F$9:F$23,"&gt;="&amp;E9:E23)-1&gt;0))&gt;0,CHAR(10)&amp;"ОШИБКА: Обнаружено пересечение периодов отпуска",""),IF(H2&lt;0,CHAR(10)&amp;"ОШИБКА: Отмечено больше чем доступно",""),IF(H2&gt;0,CHAR(10)&amp;"ОШИБКА: Не все дни отпуска распределены",""),IF(COUNTIF(G9:G23,"&gt;=14")=0,CHAR(10)&amp;"ОШИБКА: Отсутствует период отпуска 14 дней или более",""),IF(COUNTIF(G9:G23,"&lt;1")&gt;0,CHAR(10)&amp;"ОШИБКА: Обнаружены некорректные периоды отпуска (менее 1 дня)","")))</f>
+        <v>Форма заполнена корректно</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21">
+        <f>SUMIF(G9:G23,"&gt;0")</f>
+        <v>48</v>
+      </c>
+      <c r="H2" s="20">
+        <f>SUM(J2:J5)-G2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="23">
+        <v>28</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="32"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="23">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="32"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="28" t="str">
-        <f>IF(COUNTIF(G9:G23,"&lt;1")&gt;0,"ОШИБКА: Некорректные даты отпуска, продолжительность отпуска не может быть меньше одного дня.",IF(SUMPRODUCT((E9:E23&lt;&gt;"")*(F9:F23&lt;&gt;"")*(COUNTIFS(E$9:E$23,"&lt;="&amp;F9:F23,F$9:F$23,"&gt;="&amp;E9:E23)-1&gt;0))&gt;0,"ОШИБКА: Обнаружены пересекающиеся периоды отпуска.","Данные верны."))</f>
-        <v>Данные верны.</v>
-      </c>
-      <c r="I2" s="30" t="str">
-        <f>IF(COUNTIF(G9:G23,"&gt;=14")&gt;0,"Присутствует","ОШИБКА: Запланируйте как минимум один отпуск, продолжностельностью 14 дней или более.")</f>
-        <v>ОШИБКА: Запланируйте как минимум один отпуск, продолжностельностью 14 дней или более.</v>
-      </c>
-      <c r="J2" s="32">
-        <f>SUMIF(G9:G23,"&gt;=0")</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="23">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="32"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="32"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="24">
+        <v>12</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="32"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="32"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="33"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" s="14" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="I7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="J7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="M7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="N7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="8">
         <v>5</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="8">
         <v>6</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="8">
         <v>7</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="8">
         <v>8</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="8">
         <v>9</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+    <row r="9" spans="1:17" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18" t="str">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10">
+        <v>46023</v>
+      </c>
+      <c r="F9" s="10">
+        <v>46078</v>
+      </c>
+      <c r="G9" s="9">
         <f>IF(OR(F9="",E9=""),"",NETWORKDAYS.INTL(E9,F9,"0000000",$L$9:$L$21))</f>
-        <v/>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18" t="str">
+        <v>48</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="str">
         <f>IF(M9=G9," "," В периоде отпуска учтены праздничные дни")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L9" s="20">
+        <v xml:space="preserve"> В периоде отпуска учтены праздничные дни</v>
+      </c>
+      <c r="L9" s="11">
         <v>46023</v>
       </c>
-      <c r="M9" s="2" t="str">
+      <c r="M9" s="2">
         <f>IF(OR(E9="",F9=""),"",F9-E9+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+        <v>56</v>
+      </c>
+      <c r="N9" s="13">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18" t="str">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="str">
         <f t="shared" ref="G10:G23" si="0">IF(OR(F10="",E10=""),"",NETWORKDAYS.INTL(E10,F10,"0000000",$L$9:$L$21))</f>
         <v/>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18" t="str">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="str">
         <f t="shared" ref="J10:J23" si="1">IF(M10=G10," "," В периоде отпуска учтены праздничные дни")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="11">
         <v>46024</v>
       </c>
       <c r="M10" s="2" t="str">
@@ -1065,26 +997,26 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+    <row r="11" spans="1:17" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18" t="str">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18" t="str">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="11">
         <v>46027</v>
       </c>
       <c r="M11" s="2" t="str">
@@ -1092,26 +1024,26 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+    <row r="12" spans="1:17" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18" t="str">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18" t="str">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="11">
         <v>46028</v>
       </c>
       <c r="M12" s="2" t="str">
@@ -1119,26 +1051,26 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+    <row r="13" spans="1:17" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18" t="str">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18" t="str">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="11">
         <v>46029</v>
       </c>
       <c r="M13" s="2" t="str">
@@ -1146,26 +1078,26 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+    <row r="14" spans="1:17" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>6</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18" t="str">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18" t="str">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="11">
         <v>46030</v>
       </c>
       <c r="M14" s="2" t="str">
@@ -1173,26 +1105,26 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+    <row r="15" spans="1:17" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>7</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18" t="str">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18" t="str">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="12">
         <v>46031</v>
       </c>
       <c r="M15" s="2" t="str">
@@ -1200,26 +1132,26 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+    <row r="16" spans="1:17" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>8</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18" t="str">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18" t="str">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="13">
         <v>46076</v>
       </c>
       <c r="M16" s="2" t="str">
@@ -1228,25 +1160,25 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="9">
         <v>9</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18" t="str">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18" t="str">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="13">
         <v>46090</v>
       </c>
       <c r="M17" s="2" t="str">
@@ -1255,25 +1187,25 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="9">
         <v>10</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="18" t="str">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18" t="str">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="13">
         <v>46143</v>
       </c>
       <c r="M18" s="2" t="str">
@@ -1282,25 +1214,25 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="9">
         <v>11</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="18" t="str">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18" t="str">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="13">
         <v>46153</v>
       </c>
       <c r="M19" s="2" t="str">
@@ -1309,25 +1241,25 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="9">
         <v>12</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="18" t="str">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18" t="str">
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="13">
         <v>46185</v>
       </c>
       <c r="M20" s="2" t="str">
@@ -1336,25 +1268,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="9">
         <v>13</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="18" t="str">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18" t="str">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="13">
         <v>46330</v>
       </c>
       <c r="M21" s="2" t="str">
@@ -1363,21 +1295,21 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="9">
         <v>14</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="18" t="str">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18" t="str">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1387,21 +1319,21 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="9">
         <v>15</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="18" t="str">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18" t="str">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1412,44 +1344,38 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="D1:D5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>NOT(ISERROR(SEARCH("ОШИБКА",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>NOT(ISERROR(SEARCH("Данные верны",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I5">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>NOT(ISERROR(SEARCH("ОШИБКА",I2)))</formula>
+  <conditionalFormatting sqref="D2:F5">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Форма заполнена корректно"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ОШИБКА">
+      <formula>NOT(ISERROR(SEARCH("ОШИБКА",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I5">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>NOT(ISERROR(SEARCH("Присутствует",I2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат даты" error="Введите дату, которая входит в 2026 год." sqref="E9:F23">
       <formula1>46023</formula1>
       <formula2>46387</formula2>
